--- a/doc/04_画面遷移図_A型.xlsx
+++ b/doc/04_画面遷移図_A型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA20244-D534-4E8D-88C0-4EB5A9C20A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF9B0F9-3CDF-421D-A19F-EF9C24673304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -82,6 +82,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高井咲楽</t>
+    <rPh sb="0" eb="4">
+      <t>タカイサクラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -879,8 +886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3628451" y="1578855"/>
-          <a:ext cx="2262646" cy="1907631"/>
+          <a:off x="3610825" y="1532034"/>
+          <a:ext cx="2250223" cy="1838680"/>
           <a:chOff x="3582738" y="1590841"/>
           <a:chExt cx="2250508" cy="1895988"/>
         </a:xfrm>
@@ -1003,7 +1010,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4084054" y="1878264"/>
-            <a:ext cx="1224154" cy="1213331"/>
+            <a:ext cx="1224154" cy="1163177"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1066,14 +1073,7 @@
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>NN</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1164,8 +1164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9250954" y="324451"/>
-          <a:ext cx="1842485" cy="1167509"/>
+          <a:off x="9195280" y="318705"/>
+          <a:ext cx="1827112" cy="1126434"/>
           <a:chOff x="8928268" y="1607051"/>
           <a:chExt cx="1827964" cy="1160211"/>
         </a:xfrm>
@@ -1402,8 +1402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6472851" y="1558802"/>
-          <a:ext cx="1897491" cy="1876078"/>
+          <a:off x="6437677" y="1511981"/>
+          <a:ext cx="1882117" cy="1812872"/>
           <a:chOff x="3970421" y="1590841"/>
           <a:chExt cx="1882979" cy="1870442"/>
         </a:xfrm>
@@ -1579,14 +1579,7 @@
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>NN</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1854,8 +1847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6557866" y="3645418"/>
-          <a:ext cx="5226798" cy="2509742"/>
+          <a:off x="6522692" y="3523900"/>
+          <a:ext cx="5185800" cy="2423554"/>
           <a:chOff x="6521847" y="3623862"/>
           <a:chExt cx="5188201" cy="2501717"/>
         </a:xfrm>
@@ -2263,8 +2256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25904797" y="21973059"/>
-          <a:ext cx="1945141" cy="1177937"/>
+          <a:off x="25710756" y="21225238"/>
+          <a:ext cx="1929767" cy="1137715"/>
           <a:chOff x="9920111" y="11394722"/>
           <a:chExt cx="1926165" cy="1138767"/>
         </a:xfrm>
@@ -2465,8 +2458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24015683" y="18876613"/>
-          <a:ext cx="5833020" cy="3762959"/>
+          <a:off x="23837017" y="18237964"/>
+          <a:ext cx="5781772" cy="3630803"/>
           <a:chOff x="10202333" y="13405556"/>
           <a:chExt cx="5764753" cy="3628447"/>
         </a:xfrm>
@@ -2649,8 +2642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12330193" y="6744503"/>
-          <a:ext cx="12938669" cy="9635953"/>
+          <a:off x="12248896" y="6519559"/>
+          <a:ext cx="12831050" cy="9308436"/>
           <a:chOff x="12149668" y="6459361"/>
           <a:chExt cx="12805831" cy="9316587"/>
         </a:xfrm>
@@ -5985,8 +5978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7284252" y="9273190"/>
-          <a:ext cx="3619608" cy="2196468"/>
+          <a:off x="7243953" y="8962057"/>
+          <a:ext cx="3588860" cy="2121771"/>
           <a:chOff x="7224889" y="8974667"/>
           <a:chExt cx="3581644" cy="2123722"/>
         </a:xfrm>
@@ -6496,8 +6489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7150197" y="6743445"/>
-          <a:ext cx="2741692" cy="1822973"/>
+          <a:off x="7109898" y="6518501"/>
+          <a:ext cx="2721193" cy="1759768"/>
           <a:chOff x="7090833" y="6528859"/>
           <a:chExt cx="2716389" cy="1761419"/>
         </a:xfrm>
@@ -7219,8 +7212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1080230" y="6636601"/>
-          <a:ext cx="3917767" cy="1937113"/>
+          <a:off x="1083103" y="6417403"/>
+          <a:ext cx="3887019" cy="1868162"/>
           <a:chOff x="1079500" y="6427611"/>
           <a:chExt cx="3879813" cy="1869963"/>
         </a:xfrm>
@@ -8313,8 +8306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24460771" y="5718980"/>
-          <a:ext cx="5058766" cy="3496481"/>
+          <a:off x="24276979" y="5528512"/>
+          <a:ext cx="5017769" cy="3375816"/>
           <a:chOff x="24197349" y="5580302"/>
           <a:chExt cx="5003030" cy="3405909"/>
         </a:xfrm>
@@ -8928,8 +8921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24460771" y="10352093"/>
-          <a:ext cx="5193542" cy="3492169"/>
+          <a:off x="24276979" y="10000739"/>
+          <a:ext cx="5152545" cy="3377250"/>
           <a:chOff x="24197349" y="10092652"/>
           <a:chExt cx="5137806" cy="3405909"/>
         </a:xfrm>
@@ -9894,8 +9887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32024981" y="5468705"/>
-          <a:ext cx="3758498" cy="2545687"/>
+          <a:off x="31779693" y="5289728"/>
+          <a:ext cx="3727750" cy="2453753"/>
           <a:chOff x="32015815" y="5301511"/>
           <a:chExt cx="3756970" cy="2458780"/>
         </a:xfrm>
@@ -10013,7 +10006,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="32938779" y="6254012"/>
-            <a:ext cx="1809012" cy="998094"/>
+            <a:ext cx="1809012" cy="953244"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10040,14 +10033,7 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>NN</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
             <a:r>
@@ -10252,8 +10238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32748840" y="9270728"/>
-          <a:ext cx="3673302" cy="2540257"/>
+          <a:off x="32498427" y="8959595"/>
+          <a:ext cx="3642554" cy="2454068"/>
           <a:chOff x="32739419" y="8978605"/>
           <a:chExt cx="3671775" cy="2458780"/>
         </a:xfrm>
@@ -10371,7 +10357,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="33426105" y="9576687"/>
-            <a:ext cx="1809012" cy="998094"/>
+            <a:ext cx="1809012" cy="955282"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10398,14 +10384,7 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>・</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>NN</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
             <a:r>
@@ -12041,8 +12020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -12079,13 +12058,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>607</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">

--- a/doc/04_画面遷移図_A型.xlsx
+++ b/doc/04_画面遷移図_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF9B0F9-3CDF-421D-A19F-EF9C24673304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34ED3F-E2B6-4CD1-B90D-775367269812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -886,8 +886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3610825" y="1532034"/>
-          <a:ext cx="2250223" cy="1838680"/>
+          <a:off x="4016144" y="1602965"/>
+          <a:ext cx="2554212" cy="1960276"/>
           <a:chOff x="3582738" y="1590841"/>
           <a:chExt cx="2250508" cy="1895988"/>
         </a:xfrm>
@@ -1164,8 +1164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9195280" y="318705"/>
-          <a:ext cx="1827112" cy="1126434"/>
+          <a:off x="10309908" y="328838"/>
+          <a:ext cx="2070303" cy="1187232"/>
           <a:chOff x="8928268" y="1607051"/>
           <a:chExt cx="1827964" cy="1160211"/>
         </a:xfrm>
@@ -1402,8 +1402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6437677" y="1511981"/>
-          <a:ext cx="1882117" cy="1812872"/>
+          <a:off x="7228049" y="1582912"/>
+          <a:ext cx="2125309" cy="1924335"/>
           <a:chOff x="3970421" y="1590841"/>
           <a:chExt cx="1882979" cy="1870442"/>
         </a:xfrm>
@@ -1847,8 +1847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6522692" y="3523900"/>
-          <a:ext cx="5185800" cy="2423554"/>
+          <a:off x="7313064" y="3726559"/>
+          <a:ext cx="5834311" cy="2575549"/>
           <a:chOff x="6521847" y="3623862"/>
           <a:chExt cx="5188201" cy="2501717"/>
         </a:xfrm>
@@ -2256,8 +2256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25710756" y="21225238"/>
-          <a:ext cx="1929767" cy="1137715"/>
+          <a:off x="29014107" y="22532392"/>
+          <a:ext cx="2172959" cy="1208646"/>
           <a:chOff x="9920111" y="11394722"/>
           <a:chExt cx="1926165" cy="1138767"/>
         </a:xfrm>
@@ -2458,8 +2458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23837017" y="18237964"/>
-          <a:ext cx="5781772" cy="3630803"/>
+          <a:off x="26897176" y="19352592"/>
+          <a:ext cx="6592411" cy="3863861"/>
           <a:chOff x="10202333" y="13405556"/>
           <a:chExt cx="5764753" cy="3628447"/>
         </a:xfrm>
@@ -2642,8 +2642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12248896" y="6519559"/>
-          <a:ext cx="12831050" cy="9308436"/>
+          <a:off x="13768843" y="6904612"/>
+          <a:ext cx="14533390" cy="9886016"/>
           <a:chOff x="12149668" y="6459361"/>
           <a:chExt cx="12805831" cy="9316587"/>
         </a:xfrm>
@@ -5978,8 +5978,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7243953" y="8962057"/>
-          <a:ext cx="3588860" cy="2121771"/>
+          <a:off x="8115389" y="9499105"/>
+          <a:ext cx="4075243" cy="2253500"/>
           <a:chOff x="7224889" y="8974667"/>
           <a:chExt cx="3581644" cy="2123722"/>
         </a:xfrm>
@@ -6489,8 +6489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7109898" y="6518501"/>
-          <a:ext cx="2721193" cy="1759768"/>
+          <a:off x="7981334" y="6903554"/>
+          <a:ext cx="3045449" cy="1871231"/>
           <a:chOff x="7090833" y="6528859"/>
           <a:chExt cx="2716389" cy="1761419"/>
         </a:xfrm>
@@ -7212,8 +7212,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1083103" y="6417403"/>
-          <a:ext cx="3887019" cy="1868162"/>
+          <a:off x="1164167" y="6792323"/>
+          <a:ext cx="4373401" cy="1989758"/>
           <a:chOff x="1079500" y="6427611"/>
           <a:chExt cx="3879813" cy="1869963"/>
         </a:xfrm>
@@ -8306,8 +8306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24276979" y="5528512"/>
-          <a:ext cx="5017769" cy="3375816"/>
+          <a:off x="27418203" y="5852767"/>
+          <a:ext cx="5666279" cy="3588609"/>
           <a:chOff x="24197349" y="5580302"/>
           <a:chExt cx="5003030" cy="3405909"/>
         </a:xfrm>
@@ -8921,8 +8921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24276979" y="10000739"/>
-          <a:ext cx="5152545" cy="3377250"/>
+          <a:off x="27418203" y="10608718"/>
+          <a:ext cx="5801055" cy="3579910"/>
           <a:chOff x="24197349" y="10092652"/>
           <a:chExt cx="5137806" cy="3405909"/>
         </a:xfrm>
@@ -9887,8 +9887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31779693" y="5289728"/>
-          <a:ext cx="3727750" cy="2453753"/>
+          <a:off x="35893683" y="5593718"/>
+          <a:ext cx="4214132" cy="2615880"/>
           <a:chOff x="32015815" y="5301511"/>
           <a:chExt cx="3756970" cy="2458780"/>
         </a:xfrm>
@@ -10238,8 +10238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="32498427" y="8959595"/>
-          <a:ext cx="3642554" cy="2454068"/>
+          <a:off x="36693480" y="9496643"/>
+          <a:ext cx="4128937" cy="2606063"/>
           <a:chOff x="32739419" y="8978605"/>
           <a:chExt cx="3671775" cy="2458780"/>
         </a:xfrm>
@@ -12020,17 +12020,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12042,7 +12040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -12054,7 +12052,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12062,7 +12060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12070,25 +12068,25 @@
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O9" s="5"/>
     </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L20" s="6"/>
     </row>
-    <row r="30" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:14" x14ac:dyDescent="0.15">
       <c r="N30" s="6"/>
     </row>
-    <row r="60" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="14:18" x14ac:dyDescent="0.15">
       <c r="N60" s="7"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="70" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R70" s="6"/>
     </row>
   </sheetData>
@@ -12107,7 +12105,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12121,7 +12119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_画面遷移図_A型.xlsx
+++ b/doc/04_画面遷移図_A型.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34ED3F-E2B6-4CD1-B90D-775367269812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E82CFD-B810-43A5-9C04-26D477359ED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -886,8 +897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4016144" y="1602965"/>
-          <a:ext cx="2554212" cy="1960276"/>
+          <a:off x="3609474" y="1587127"/>
+          <a:ext cx="2249022" cy="1925148"/>
           <a:chOff x="3582738" y="1590841"/>
           <a:chExt cx="2250508" cy="1895988"/>
         </a:xfrm>
@@ -1164,8 +1175,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10309908" y="328838"/>
-          <a:ext cx="2070303" cy="1187232"/>
+          <a:off x="9186724" y="325910"/>
+          <a:ext cx="1823508" cy="1174322"/>
           <a:chOff x="8928268" y="1607051"/>
           <a:chExt cx="1827964" cy="1160211"/>
         </a:xfrm>
@@ -1402,8 +1413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7228049" y="1582912"/>
-          <a:ext cx="2125309" cy="1924335"/>
+          <a:off x="6433924" y="1567074"/>
+          <a:ext cx="1878514" cy="1892135"/>
           <a:chOff x="3970421" y="1590841"/>
           <a:chExt cx="1882979" cy="1870442"/>
         </a:xfrm>
@@ -1847,8 +1858,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7313064" y="3726559"/>
-          <a:ext cx="5834311" cy="2575549"/>
+          <a:off x="6518939" y="3672667"/>
+          <a:ext cx="5176193" cy="2531639"/>
           <a:chOff x="6521847" y="3623862"/>
           <a:chExt cx="5188201" cy="2501717"/>
         </a:xfrm>
@@ -2256,8 +2267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29014107" y="22532392"/>
-          <a:ext cx="2172959" cy="1208646"/>
+          <a:off x="25669774" y="22159423"/>
+          <a:ext cx="1926164" cy="1188155"/>
           <a:chOff x="9920111" y="11394722"/>
           <a:chExt cx="1926165" cy="1138767"/>
         </a:xfrm>
@@ -2458,8 +2469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26897176" y="19352592"/>
-          <a:ext cx="6592411" cy="3863861"/>
+          <a:off x="23799637" y="19035242"/>
+          <a:ext cx="5769763" cy="3796533"/>
           <a:chOff x="10202333" y="13405556"/>
           <a:chExt cx="5764753" cy="3628447"/>
         </a:xfrm>
@@ -2642,8 +2653,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13768843" y="6904612"/>
-          <a:ext cx="14533390" cy="9886016"/>
+          <a:off x="12234335" y="6798028"/>
+          <a:ext cx="12805830" cy="9719160"/>
           <a:chOff x="12149668" y="6459361"/>
           <a:chExt cx="12805831" cy="9316587"/>
         </a:xfrm>
@@ -3897,10 +3908,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="12840755" y="9249833"/>
-            <a:ext cx="5327301" cy="2189502"/>
-            <a:chOff x="12840755" y="9249833"/>
-            <a:chExt cx="5327301" cy="2189502"/>
+            <a:off x="12643554" y="9235699"/>
+            <a:ext cx="5524502" cy="2203636"/>
+            <a:chOff x="12643554" y="9235699"/>
+            <a:chExt cx="5524502" cy="2203636"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -3916,10 +3927,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="12840755" y="9249833"/>
-              <a:ext cx="5327301" cy="2189502"/>
-              <a:chOff x="12840755" y="9249833"/>
-              <a:chExt cx="5327301" cy="2189502"/>
+              <a:off x="12643554" y="9235699"/>
+              <a:ext cx="5524502" cy="2203636"/>
+              <a:chOff x="12643554" y="9235699"/>
+              <a:chExt cx="5524502" cy="2203636"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -3935,10 +3946,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="12840755" y="9249833"/>
-                <a:ext cx="5094465" cy="2189502"/>
-                <a:chOff x="12840755" y="9249833"/>
-                <a:chExt cx="5066374" cy="2189502"/>
+                <a:off x="12643554" y="9235699"/>
+                <a:ext cx="5291664" cy="2203636"/>
+                <a:chOff x="12644642" y="9235699"/>
+                <a:chExt cx="5262486" cy="2203636"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -4012,10 +4023,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="12840755" y="9249833"/>
-                  <a:ext cx="5066374" cy="2189502"/>
-                  <a:chOff x="8607423" y="7944555"/>
-                  <a:chExt cx="3071848" cy="1703093"/>
+                  <a:off x="12644642" y="9235699"/>
+                  <a:ext cx="5262486" cy="2203636"/>
+                  <a:chOff x="8488516" y="7933561"/>
+                  <a:chExt cx="3190755" cy="1714087"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="" textlink="">
@@ -4031,8 +4042,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="8607423" y="7944555"/>
-                    <a:ext cx="3071848" cy="1703093"/>
+                    <a:off x="8488516" y="7933561"/>
+                    <a:ext cx="3190755" cy="1714087"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -4082,7 +4093,7 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="9516533" y="8057444"/>
+                    <a:off x="9525041" y="7994314"/>
                     <a:ext cx="672748" cy="328423"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
@@ -5978,8 +5989,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115389" y="9499105"/>
-          <a:ext cx="4075243" cy="2253500"/>
+          <a:off x="7238999" y="9348612"/>
+          <a:ext cx="3581654" cy="2215444"/>
           <a:chOff x="7224889" y="8974667"/>
           <a:chExt cx="3581644" cy="2123722"/>
         </a:xfrm>
@@ -6489,8 +6500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7981334" y="6903554"/>
-          <a:ext cx="3045449" cy="1871231"/>
+          <a:off x="7104944" y="6796970"/>
+          <a:ext cx="2716389" cy="1839030"/>
           <a:chOff x="7090833" y="6528859"/>
           <a:chExt cx="2716389" cy="1761419"/>
         </a:xfrm>
@@ -7212,8 +7223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1164167" y="6792323"/>
-          <a:ext cx="4373401" cy="1989758"/>
+          <a:off x="1086556" y="6688666"/>
+          <a:ext cx="3879813" cy="1954630"/>
           <a:chOff x="1079500" y="6427611"/>
           <a:chExt cx="3879813" cy="1869963"/>
         </a:xfrm>
@@ -8306,8 +8317,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27418203" y="5852767"/>
-          <a:ext cx="5666279" cy="3588609"/>
+          <a:off x="24238399" y="5763747"/>
+          <a:ext cx="5008161" cy="3527136"/>
           <a:chOff x="24197349" y="5580302"/>
           <a:chExt cx="5003030" cy="3405909"/>
         </a:xfrm>
@@ -8921,8 +8932,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27418203" y="10608718"/>
-          <a:ext cx="5801055" cy="3579910"/>
+          <a:off x="24238399" y="10437733"/>
+          <a:ext cx="5142937" cy="3521364"/>
           <a:chOff x="24197349" y="10092652"/>
           <a:chExt cx="5137806" cy="3405909"/>
         </a:xfrm>
@@ -9887,8 +9898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35893683" y="5593718"/>
-          <a:ext cx="4214132" cy="2615880"/>
+          <a:off x="31726701" y="5510552"/>
+          <a:ext cx="3720544" cy="2569043"/>
           <a:chOff x="32015815" y="5301511"/>
           <a:chExt cx="3756970" cy="2458780"/>
         </a:xfrm>
@@ -10006,7 +10017,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="32938779" y="6254012"/>
-            <a:ext cx="1809012" cy="953244"/>
+            <a:ext cx="1809012" cy="1120090"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10033,7 +10044,24 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>PW</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:r>
@@ -10238,8 +10266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36693480" y="9496643"/>
-          <a:ext cx="4128937" cy="2606063"/>
+          <a:off x="32444234" y="9346150"/>
+          <a:ext cx="3635349" cy="2562153"/>
           <a:chOff x="32739419" y="8978605"/>
           <a:chExt cx="3671775" cy="2458780"/>
         </a:xfrm>
@@ -10357,7 +10385,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="33426105" y="9576687"/>
-            <a:ext cx="1809012" cy="955282"/>
+            <a:ext cx="1809012" cy="1123102"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10384,7 +10412,24 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>PW</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:r>
@@ -11347,6 +11392,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>112888</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1580444" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08C4996-6293-4EA4-AFCF-229048157CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17455444" y="9200444"/>
+          <a:ext cx="1580444" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12020,15 +12123,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="BB46" sqref="BB46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12040,7 +12145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -12052,7 +12157,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -12060,7 +12165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12068,25 +12173,25 @@
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O9" s="5"/>
     </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="12:14" x14ac:dyDescent="0.2">
       <c r="L20" s="6"/>
     </row>
-    <row r="30" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="12:14" x14ac:dyDescent="0.2">
       <c r="N30" s="6"/>
     </row>
-    <row r="60" spans="14:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="14:18" x14ac:dyDescent="0.2">
       <c r="N60" s="7"/>
       <c r="R60" s="8"/>
     </row>
-    <row r="70" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R70" s="6"/>
     </row>
   </sheetData>
@@ -12105,7 +12210,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12119,7 +12224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_画面遷移図_A型.xlsx
+++ b/doc/04_画面遷移図_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E82CFD-B810-43A5-9C04-26D477359ED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6DF1FD-2307-425F-A70B-8296AE1FD987}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -12123,8 +12123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="BB46" sqref="BB46"/>
+    <sheetView tabSelected="1" topLeftCell="R31" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_画面遷移図_A型.xlsx
+++ b/doc/04_画面遷移図_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34ED3F-E2B6-4CD1-B90D-775367269812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75670615-4345-4847-9D0F-A88456321345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -886,8 +886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4016144" y="1602965"/>
-          <a:ext cx="2554212" cy="1960276"/>
+          <a:off x="4022224" y="1562433"/>
+          <a:ext cx="2559025" cy="1893398"/>
           <a:chOff x="3582738" y="1590841"/>
           <a:chExt cx="2250508" cy="1895988"/>
         </a:xfrm>
@@ -1164,8 +1164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10309908" y="328838"/>
-          <a:ext cx="2070303" cy="1187232"/>
+          <a:off x="10328401" y="323265"/>
+          <a:ext cx="2074862" cy="1152273"/>
           <a:chOff x="8928268" y="1607051"/>
           <a:chExt cx="1827964" cy="1160211"/>
         </a:xfrm>
@@ -1402,8 +1402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7228049" y="1582912"/>
-          <a:ext cx="2125309" cy="1924335"/>
+          <a:off x="7240462" y="1542380"/>
+          <a:ext cx="2129868" cy="1863031"/>
           <a:chOff x="3970421" y="1590841"/>
           <a:chExt cx="1882979" cy="1870442"/>
         </a:xfrm>
@@ -1847,8 +1847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7313064" y="3726559"/>
-          <a:ext cx="5834311" cy="2575549"/>
+          <a:off x="7325477" y="3613577"/>
+          <a:ext cx="5846471" cy="2491951"/>
           <a:chOff x="6521847" y="3623862"/>
           <a:chExt cx="5188201" cy="2501717"/>
         </a:xfrm>
@@ -2137,8 +2137,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6822664" y="5504939"/>
-            <a:ext cx="1333071" cy="544271"/>
+            <a:off x="6603593" y="5685709"/>
+            <a:ext cx="1552143" cy="363501"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2166,7 +2166,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>コーディネート履歴確認ボタン</a:t>
+              <a:t>コーディネート履歴ボタン</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2178,12 +2178,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>331241</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>163526</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401439</xdr:colOff>
+      <xdr:colOff>190502</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>155221</xdr:rowOff>
     </xdr:to>
@@ -2203,8 +2203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3039115" y="5805537"/>
-          <a:ext cx="3821807" cy="831063"/>
+          <a:off x="3355429" y="5848415"/>
+          <a:ext cx="4062167" cy="736181"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2256,8 +2256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29014107" y="22532392"/>
-          <a:ext cx="2172959" cy="1208646"/>
+          <a:off x="29073638" y="21811937"/>
+          <a:ext cx="2177519" cy="1169635"/>
           <a:chOff x="9920111" y="11394722"/>
           <a:chExt cx="1926165" cy="1138767"/>
         </a:xfrm>
@@ -2458,8 +2458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26897176" y="19352592"/>
-          <a:ext cx="6592411" cy="3863861"/>
+          <a:off x="26952148" y="18738027"/>
+          <a:ext cx="6607610" cy="3735679"/>
           <a:chOff x="10202333" y="13405556"/>
           <a:chExt cx="5764753" cy="3628447"/>
         </a:xfrm>
@@ -2642,8 +2642,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13768843" y="6904612"/>
-          <a:ext cx="14533390" cy="9886016"/>
+          <a:off x="13794935" y="6691313"/>
+          <a:ext cx="14565310" cy="9568347"/>
           <a:chOff x="12149668" y="6459361"/>
           <a:chExt cx="12805831" cy="9316587"/>
         </a:xfrm>
@@ -3668,54 +3668,6 @@
                   <a:r>
                     <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
                     <a:t>削除確認画面</a:t>
-                  </a:r>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="154" name="テキスト ボックス 153">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5957192-AF66-45F0-9B76-972914877E13}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="10109950" y="10612775"/>
-                  <a:ext cx="1081186" cy="184946"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:noFill/>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:lnRef>
-                <a:fillRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:scrgbClr r="0" g="0" b="0"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="tx1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:r>
-                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                    <a:t>・服の種類タグ</a:t>
                   </a:r>
                 </a:p>
               </xdr:txBody>
@@ -5978,8 +5930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115389" y="9499105"/>
-          <a:ext cx="4075243" cy="2253500"/>
+          <a:off x="8129322" y="9202209"/>
+          <a:ext cx="4084362" cy="2181049"/>
           <a:chOff x="7224889" y="8974667"/>
           <a:chExt cx="3581644" cy="2123722"/>
         </a:xfrm>
@@ -6173,7 +6125,7 @@
                 <xdr:spPr>
                   <a:xfrm>
                     <a:off x="6328834" y="6674556"/>
-                    <a:ext cx="1545167" cy="275717"/>
+                    <a:ext cx="1599405" cy="268470"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -6202,7 +6154,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                      <a:t>・服の画像アップデート</a:t>
+                      <a:t>・アップロードした服の画像</a:t>
                     </a:r>
                   </a:p>
                 </xdr:txBody>
@@ -6250,7 +6202,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                      <a:t>・服のタグ設定</a:t>
+                      <a:t>・選択した服のタグ</a:t>
                     </a:r>
                   </a:p>
                 </xdr:txBody>
@@ -6489,8 +6441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7981334" y="6903554"/>
-          <a:ext cx="3045449" cy="1871231"/>
+          <a:off x="7995267" y="6690255"/>
+          <a:ext cx="3051528" cy="1809926"/>
           <a:chOff x="7090833" y="6528859"/>
           <a:chExt cx="2716389" cy="1761419"/>
         </a:xfrm>
@@ -7128,64 +7080,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>515055</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2398889" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="350" name="テキスト ボックス 349">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF35C17A-18CF-4DC0-875D-CC688C40C3C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1989666" y="6963833"/>
-          <a:ext cx="2398889" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ある日にちの日付・天気・気温</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7201,10 +7095,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="352" name="グループ化 351">
+        <xdr:cNvPr id="349" name="グループ化 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E8B7B8-A41B-48B9-B967-94AEC055350C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A2562C-D3B2-4DAC-8CEC-35C24C988A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7212,137 +7106,69 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1164167" y="6792323"/>
-          <a:ext cx="4373401" cy="1989758"/>
+          <a:off x="1164167" y="6584597"/>
+          <a:ext cx="4382521" cy="1922880"/>
           <a:chOff x="1079500" y="6427611"/>
           <a:chExt cx="3879813" cy="1869963"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="349" name="グループ化 348">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="346" name="正方形/長方形 345">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A2562C-D3B2-4DAC-8CEC-35C24C988A97}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29204FB-C1F9-4161-9330-FB831626BE8C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="1079500" y="6427611"/>
             <a:ext cx="3879813" cy="1869963"/>
-            <a:chOff x="1079500" y="6427611"/>
-            <a:chExt cx="3879813" cy="1869963"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="346" name="正方形/長方形 345">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29204FB-C1F9-4161-9330-FB831626BE8C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1079500" y="6427611"/>
-              <a:ext cx="3879813" cy="1869963"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="348" name="テキスト ボックス 347">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCC1860-0FF2-4FE0-BDF5-5BABF60617DB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2377723" y="6589889"/>
-              <a:ext cx="1031051" cy="275717"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
               <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>履歴検索画面</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="351" name="テキスト ボックス 350">
+          <xdr:cNvPr id="348" name="テキスト ボックス 347">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B1E49C-5441-45B6-8D98-D2883D1D77D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCC1860-0FF2-4FE0-BDF5-5BABF60617DB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7350,22 +7176,13 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2547056" y="7288388"/>
-            <a:ext cx="472720" cy="275815"/>
+            <a:off x="2377723" y="6589889"/>
+            <a:ext cx="1031051" cy="275717"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
+          <a:noFill/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -7378,20 +7195,19 @@
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-              <a:t>…</a:t>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>履歴検索画面</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7584,7 +7400,7 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>77612</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3055055" cy="275717"/>
+    <xdr:ext cx="3420179" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="360" name="テキスト ボックス 359">
@@ -7598,8 +7414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1531056" y="10406945"/>
-          <a:ext cx="3055055" cy="275717"/>
+          <a:off x="1699508" y="10674175"/>
+          <a:ext cx="3420179" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7628,7 +7444,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ある日にちの日付・天気・気温、着ていった服装</a:t>
+            <a:t>ある日にちの日付・最高、最低気温、着ていった服装</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7978,15 +7794,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>106457</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>14197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>368263</xdr:colOff>
+      <xdr:colOff>368264</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>89711</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8001,8 +7817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10177020" y="4468141"/>
-          <a:ext cx="1478144" cy="236500"/>
+          <a:off x="11370470" y="4610010"/>
+          <a:ext cx="1749388" cy="247740"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8030,7 +7846,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コーディネートボタン</a:t>
+            <a:t>コーディネート登録ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8306,8 +8122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27418203" y="5852767"/>
-          <a:ext cx="5666279" cy="3588609"/>
+          <a:off x="27474694" y="5672907"/>
+          <a:ext cx="5678439" cy="3471573"/>
           <a:chOff x="24197349" y="5580302"/>
           <a:chExt cx="5003030" cy="3405909"/>
         </a:xfrm>
@@ -8921,8 +8737,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27418203" y="10608718"/>
-          <a:ext cx="5801055" cy="3579910"/>
+          <a:off x="27474694" y="10272810"/>
+          <a:ext cx="5813215" cy="3468447"/>
           <a:chOff x="24197349" y="10092652"/>
           <a:chExt cx="5137806" cy="3405909"/>
         </a:xfrm>
@@ -9887,8 +9703,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35893683" y="5593718"/>
-          <a:ext cx="4214132" cy="2615880"/>
+          <a:off x="35968413" y="5425004"/>
+          <a:ext cx="4223252" cy="2526710"/>
           <a:chOff x="32015815" y="5301511"/>
           <a:chExt cx="3756970" cy="2458780"/>
         </a:xfrm>
@@ -10238,8 +10054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36693480" y="9496643"/>
-          <a:ext cx="4128937" cy="2606063"/>
+          <a:off x="36769731" y="9199747"/>
+          <a:ext cx="4138057" cy="2522466"/>
           <a:chOff x="32739419" y="8978605"/>
           <a:chExt cx="3671775" cy="2458780"/>
         </a:xfrm>
@@ -11171,64 +10987,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>525517</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1795517" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="549" name="テキスト ボックス 548">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F0C10D-9655-4006-9FC5-5CDA1DBE2ADE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2003534" y="7838965"/>
-          <a:ext cx="1795517" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日付順</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>514569</xdr:colOff>
       <xdr:row>67</xdr:row>
@@ -11347,6 +11105,416 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E5124A-28EC-43ED-B277-018B07A64EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3036094" y="7131844"/>
+          <a:ext cx="1166812" cy="250031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="正方形/長方形 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0915744-AF56-4715-83CD-0EDED89A00EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3036094" y="7524750"/>
+          <a:ext cx="892968" cy="250032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211931</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>69057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="正方形/長方形 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D223166-1436-4E6A-8459-033C9F14B8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3033713" y="7915275"/>
+          <a:ext cx="892968" cy="250032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C45BE6-22A3-40B7-A469-C9F7A1F88A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2393156" y="7108031"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日付</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="テキスト ボックス 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60695F2D-DB78-4788-96EF-7975B9A5CA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178844" y="7893845"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最低気温</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545307</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="テキスト ボックス 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FACBE2-615B-4AD4-8295-3185945A2D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2188370" y="7486651"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最高気温</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="四角形: 角を丸くする 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEE17DF-2A8A-4005-95F0-C6C359BA2DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905126" y="8191500"/>
+          <a:ext cx="988218" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12020,7 +12188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AN22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/04_画面遷移図_A型.xlsx
+++ b/doc/04_画面遷移図_A型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75670615-4345-4847-9D0F-A88456321345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66248456-C9CE-4274-9D3B-E9497B9A8FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,8 +886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4022224" y="1562433"/>
-          <a:ext cx="2559025" cy="1893398"/>
+          <a:off x="3981403" y="1644076"/>
+          <a:ext cx="2526708" cy="2015862"/>
           <a:chOff x="3582738" y="1590841"/>
           <a:chExt cx="2250508" cy="1895988"/>
         </a:xfrm>
@@ -1164,8 +1164,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10328401" y="323265"/>
-          <a:ext cx="2074862" cy="1152273"/>
+          <a:off x="10204236" y="333470"/>
+          <a:ext cx="2044246" cy="1223711"/>
           <a:chOff x="8928268" y="1607051"/>
           <a:chExt cx="1827964" cy="1160211"/>
         </a:xfrm>
@@ -1402,8 +1402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7240462" y="1542380"/>
-          <a:ext cx="2129868" cy="1863031"/>
+          <a:off x="7157118" y="1624023"/>
+          <a:ext cx="2099252" cy="1975289"/>
           <a:chOff x="3970421" y="1590841"/>
           <a:chExt cx="1882979" cy="1870442"/>
         </a:xfrm>
@@ -1847,8 +1847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7325477" y="3613577"/>
-          <a:ext cx="5846471" cy="2491951"/>
+          <a:off x="7242133" y="3827889"/>
+          <a:ext cx="5764828" cy="2645032"/>
           <a:chOff x="6521847" y="3623862"/>
           <a:chExt cx="5188201" cy="2501717"/>
         </a:xfrm>
@@ -2091,6 +2091,10 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・日付の表示</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
@@ -2105,22 +2109,6 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>・おすすめの服の種類タグ表示</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>雨の場合は傘や靴の注意表示</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2256,8 +2244,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29073638" y="21811937"/>
-          <a:ext cx="2177519" cy="1169635"/>
+          <a:off x="28673928" y="23138633"/>
+          <a:ext cx="2146903" cy="1241072"/>
           <a:chOff x="9920111" y="11394722"/>
           <a:chExt cx="1926165" cy="1138767"/>
         </a:xfrm>
@@ -2458,8 +2446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="26952148" y="18738027"/>
-          <a:ext cx="6607610" cy="3735679"/>
+          <a:off x="26583054" y="19870821"/>
+          <a:ext cx="6505556" cy="3970403"/>
           <a:chOff x="10202333" y="13405556"/>
           <a:chExt cx="5764753" cy="3628447"/>
         </a:xfrm>
@@ -2642,8 +2630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13794935" y="6691313"/>
-          <a:ext cx="14565310" cy="9568347"/>
+          <a:off x="13619743" y="7089321"/>
+          <a:ext cx="14350997" cy="10150053"/>
           <a:chOff x="12149668" y="6459361"/>
           <a:chExt cx="12805831" cy="9316587"/>
         </a:xfrm>
@@ -3686,7 +3674,7 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="12573000" y="13560778"/>
+                <a:off x="12561059" y="13743695"/>
                 <a:ext cx="472720" cy="275815"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -4892,10 +4880,10 @@
           </xdr:grpSpPr>
           <xdr:grpSp>
             <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="207" name="グループ化 206">
+              <xdr:cNvPr id="189" name="グループ化 188">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8350F64B-F9B1-419A-A961-7F1E25AA2790}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB736A3-6EB4-4596-9B17-87F4573EDD31}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4905,304 +4893,188 @@
               <a:xfrm>
                 <a:off x="16325520" y="14063487"/>
                 <a:ext cx="3206525" cy="1712461"/>
-                <a:chOff x="16325520" y="14063487"/>
-                <a:chExt cx="3206525" cy="1712461"/>
+                <a:chOff x="10064643" y="9667266"/>
+                <a:chExt cx="1963815" cy="1148688"/>
               </a:xfrm>
             </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="189" name="グループ化 188">
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="191" name="正方形/長方形 190">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB736A3-6EB4-4596-9B17-87F4573EDD31}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CE6C99-7653-43DD-B914-9AA70040E6AC}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="16325520" y="14063487"/>
-                  <a:ext cx="3206525" cy="1712461"/>
-                  <a:chOff x="10064643" y="9667266"/>
-                  <a:chExt cx="1963815" cy="1148688"/>
+                  <a:off x="10064643" y="9667266"/>
+                  <a:ext cx="1963815" cy="1148688"/>
                 </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="191" name="正方形/長方形 190">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CE6C99-7653-43DD-B914-9AA70040E6AC}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="10064643" y="9667266"/>
-                    <a:ext cx="1963815" cy="1148688"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:solidFill>
-                      <a:srgbClr val="FFFF00"/>
-                    </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="192" name="正方形/長方形 191">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5E2E8B-0C57-44A0-BA09-120B740DFB2D}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="10142361" y="9933134"/>
-                    <a:ext cx="764473" cy="428464"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFF00"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="192" name="正方形/長方形 191">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5E2E8B-0C57-44A0-BA09-120B740DFB2D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10142361" y="9933134"/>
+                  <a:ext cx="764473" cy="428464"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>選択した</a:t>
+                  </a:r>
+                  <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>選択した</a:t>
-                    </a:r>
-                    <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000"/>
                       </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>服の写真</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="193" name="四角形: 角を丸くする 192">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9159152F-0665-4E4A-A3C8-7A41B1487381}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="11082514" y="10582246"/>
-                    <a:ext cx="803325" cy="214053"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="roundRect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="dk1"/>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="lt1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="dk1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="dk1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr algn="l"/>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                      <a:t>更新ボタン</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="194" name="テキスト ボックス 193">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18AFA7C0-3D94-4F2A-A9AD-EE64D8F0429F}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="10561020" y="9703971"/>
-                    <a:ext cx="720517" cy="184946"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="tx1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                      <a:t>編集確認画面</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="195" name="テキスト ボックス 194">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0811FB94-9545-4EEE-9676-D383EEF731EE}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr txBox="1"/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="10114832" y="10404534"/>
-                    <a:ext cx="1081186" cy="184946"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:lnRef>
-                  <a:fillRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:scrgbClr r="0" g="0" b="0"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="tx1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-                    <a:spAutoFit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                      <a:t>・服の種類タグ</a:t>
-                    </a:r>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-            </xdr:grpSp>
+                    </a:rPr>
+                    <a:t>服の写真</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
             <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
-                <xdr:cNvPr id="205" name="テキスト ボックス 204">
+                <xdr:cNvPr id="193" name="四角形: 角を丸くする 192">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B95E054-AE0E-40B1-8AE8-0426A8C04239}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9159152F-0665-4E4A-A3C8-7A41B1487381}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11082514" y="10582246"/>
+                  <a:ext cx="803325" cy="214053"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                    <a:t>更新ボタン</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="194" name="テキスト ボックス 193">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18AFA7C0-3D94-4F2A-A9AD-EE64D8F0429F}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -5210,22 +5082,13 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="16749889" y="15479889"/>
-                  <a:ext cx="472720" cy="275815"/>
+                  <a:off x="10561020" y="9703971"/>
+                  <a:ext cx="720517" cy="184946"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
                 </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln w="9525" cmpd="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
+                <a:noFill/>
               </xdr:spPr>
               <xdr:style>
                 <a:lnRef idx="0">
@@ -5238,20 +5101,67 @@
                   <a:scrgbClr r="0" g="0" b="0"/>
                 </a:effectRef>
                 <a:fontRef idx="minor">
-                  <a:schemeClr val="dk1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:fontRef>
               </xdr:style>
               <xdr:txBody>
-                <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
                   <a:r>
-                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-                    <a:t>…</a:t>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                    <a:t>編集確認画面</a:t>
                   </a:r>
                 </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="195" name="テキスト ボックス 194">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0811FB94-9545-4EEE-9676-D383EEF731EE}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10114832" y="10404534"/>
+                  <a:ext cx="1081186" cy="184946"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
                 <a:p>
-                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                    <a:t>・服の種類タグ</a:t>
+                  </a:r>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
@@ -5930,8 +5840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8129322" y="9202209"/>
-          <a:ext cx="4084362" cy="2181049"/>
+          <a:off x="8035773" y="9753298"/>
+          <a:ext cx="4023130" cy="2313718"/>
           <a:chOff x="7224889" y="8974667"/>
           <a:chExt cx="3581644" cy="2123722"/>
         </a:xfrm>
@@ -6441,8 +6351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7995267" y="6690255"/>
-          <a:ext cx="3051528" cy="1809926"/>
+          <a:off x="7901718" y="7088263"/>
+          <a:ext cx="3010707" cy="1922186"/>
           <a:chOff x="7090833" y="6528859"/>
           <a:chExt cx="2716389" cy="1761419"/>
         </a:xfrm>
@@ -7106,8 +7016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1164167" y="6584597"/>
-          <a:ext cx="4382521" cy="1922880"/>
+          <a:off x="1164167" y="6972401"/>
+          <a:ext cx="4321289" cy="2045344"/>
           <a:chOff x="1079500" y="6427611"/>
           <a:chExt cx="3879813" cy="1869963"/>
         </a:xfrm>
@@ -8122,8 +8032,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27474694" y="5672907"/>
-          <a:ext cx="5678439" cy="3471573"/>
+          <a:off x="27095395" y="6009683"/>
+          <a:ext cx="5596796" cy="3685886"/>
           <a:chOff x="24197349" y="5580302"/>
           <a:chExt cx="5003030" cy="3405909"/>
         </a:xfrm>
@@ -8737,8 +8647,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="27474694" y="10272810"/>
-          <a:ext cx="5813215" cy="3468447"/>
+          <a:off x="27095395" y="10895336"/>
+          <a:ext cx="5731572" cy="3672554"/>
           <a:chOff x="24197349" y="10092652"/>
           <a:chExt cx="5137806" cy="3405909"/>
         </a:xfrm>
@@ -9703,8 +9613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35968413" y="5425004"/>
-          <a:ext cx="4223252" cy="2526710"/>
+          <a:off x="35466650" y="5741370"/>
+          <a:ext cx="4162020" cy="2689995"/>
           <a:chOff x="32015815" y="5301511"/>
           <a:chExt cx="3756970" cy="2458780"/>
         </a:xfrm>
@@ -9822,7 +9732,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="32938779" y="6254012"/>
-            <a:ext cx="1809012" cy="953244"/>
+            <a:ext cx="1809012" cy="912304"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9849,7 +9759,14 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ID/PW</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:r>
@@ -10054,8 +9971,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="36769731" y="9199747"/>
-          <a:ext cx="4138057" cy="2522466"/>
+          <a:off x="36257762" y="9750836"/>
+          <a:ext cx="4076825" cy="2675546"/>
           <a:chOff x="32739419" y="8978605"/>
           <a:chExt cx="3671775" cy="2458780"/>
         </a:xfrm>
@@ -10173,7 +10090,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="33426105" y="9576687"/>
-            <a:ext cx="1809012" cy="955282"/>
+            <a:ext cx="1809012" cy="917231"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -10200,6 +10117,47 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>・</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID/PW</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
@@ -11515,6 +11473,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2032000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="テキスト ボックス 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580ED886-B42E-4994-A5A6-7397B2FF08AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13743214" y="14722929"/>
+          <a:ext cx="2032000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>服の種類表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12188,8 +12204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="AJ31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y82" sqref="Y82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
